--- a/database/sidis/expdata/2518.xlsx
+++ b/database/sidis/expdata/2518.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98C970-32B3-4C30-BF37-F78DD39A9776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35843743-E6FE-3144-9943-F1AEDBA6F507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16266" yWindow="-186" windowWidth="13170" windowHeight="11520" xr2:uid="{38D9C9D4-7459-4EC7-B23B-6C73A1E506F6}"/>
+    <workbookView xWindow="15620" yWindow="460" windowWidth="13180" windowHeight="11520" xr2:uid="{38D9C9D4-7459-4EC7-B23B-6C73A1E506F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Q2</t>
   </si>
@@ -91,6 +82,9 @@
   </si>
   <si>
     <t>sys_err_u</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -498,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ECE5BA-64EF-4860-93F6-0079BB15B103}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +546,11 @@
       <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1.29</v>
       </c>
@@ -599,8 +596,11 @@
       <c r="O2">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1.64</v>
       </c>
@@ -646,8 +646,11 @@
       <c r="O3">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1.98</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="O4">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2.34</v>
       </c>
@@ -740,8 +746,11 @@
       <c r="O5">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2.87</v>
       </c>
@@ -787,8 +796,11 @@
       <c r="O6">
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3.69</v>
       </c>
@@ -834,8 +846,11 @@
       <c r="O7">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5.71</v>
       </c>
@@ -881,8 +896,11 @@
       <c r="O8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -894,7 +912,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -906,7 +924,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -916,7 +934,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -926,7 +944,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -936,7 +954,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -946,7 +964,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -956,7 +974,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -966,7 +984,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -976,7 +994,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -989,7 +1007,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1002,7 +1020,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1017,7 +1035,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1032,7 +1050,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1047,7 +1065,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1062,7 +1080,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1077,7 +1095,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1092,7 +1110,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1107,7 +1125,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
